--- a/Model_Stats.xlsx
+++ b/Model_Stats.xlsx
@@ -812,75 +812,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Hannover</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Koeln</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>p0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>e5,e6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>d1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Essen</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>p0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>p1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>e4</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="E3" t="inlineStr">
+    <row r="4">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Koeln</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>p1</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>p2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>e7,e8</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>d1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Hamburg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>p2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>e11,e5</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hannover</t>
+          <t>Duesseldorf</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -913,44 +913,44 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>e5,e6</t>
+          <t>e8</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>p4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>e7,e4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>d3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Duesseldorf</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Koeln</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>p4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>e8</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Dortmund</t>
@@ -963,7 +963,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>e7,e4</t>
+          <t>e3,e5</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>e1,e5</t>
+          <t>e11,e5</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>e10,e6</t>
+          <t>e1,e5</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bremen</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>e3,e5</t>
+          <t>e10,e6</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>xd0p1</t>
+          <t>xd1p1</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>xd3p4</t>
+          <t>xd2p4</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
